--- a/DATA/US-Occupation_Race.xlsx
+++ b/DATA/US-Occupation_Race.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="0" windowWidth="25360" windowHeight="15240" tabRatio="690" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="40" yWindow="0" windowWidth="25360" windowHeight="15240" tabRatio="690"/>
   </bookViews>
   <sheets>
     <sheet name="US-Occupation_Race.CSV" sheetId="1" r:id="rId1"/>
@@ -226,8 +226,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="79">
+  <cellStyleXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -315,7 +319,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="79">
+  <cellStyles count="83">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -355,6 +359,8 @@
     <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -394,6 +400,8 @@
     <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -955,28 +963,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>0.00991342</c:v>
+                  <c:v>0.0099134195</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.007274346</c:v>
+                  <c:v>0.0072743457</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.014848493</c:v>
+                  <c:v>0.0148484925</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.01000394</c:v>
+                  <c:v>0.0100039404</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.017986467</c:v>
+                  <c:v>0.0179864672</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.012021588</c:v>
+                  <c:v>0.0120215881</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.015199763</c:v>
+                  <c:v>0.0151997632</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.011044782</c:v>
+                  <c:v>0.0110447823</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.023984127</c:v>
@@ -985,25 +993,25 @@
                   <c:v>0.010818888</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.006236598</c:v>
+                  <c:v>0.0062365982</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.017384207</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.011908823</c:v>
+                  <c:v>0.0119088233</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.001117412</c:v>
+                  <c:v>0.0011174121</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.016867671</c:v>
+                  <c:v>0.0168676713</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.0090081</c:v>
+                  <c:v>0.0090081004</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.003941858</c:v>
+                  <c:v>0.0039418576</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0.009382564</c:v>
@@ -1012,16 +1020,16 @@
                   <c:v>0.013391624</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.008554065</c:v>
+                  <c:v>0.0085540653</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.018569114</c:v>
+                  <c:v>0.0185691142</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.008369408</c:v>
+                  <c:v>0.0083694077</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.008530839</c:v>
+                  <c:v>0.0085308386</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1715,16 +1723,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1785,16 +1793,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2175,7 +2183,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I361"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -15323,8 +15331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I116"/>
   <sheetViews>
-    <sheetView topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="I94" sqref="I94:I116"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="I48" sqref="I48:I70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -19889,7 +19897,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -19924,8 +19932,8 @@
       <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="3">
-        <v>9.9134199999999992E-3</v>
+      <c r="C2" s="2">
+        <v>9.9134194999999994E-3</v>
       </c>
       <c r="D2">
         <v>3.7519635000000003E-2</v>
@@ -19941,8 +19949,8 @@
       <c r="B3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="3">
-        <v>7.2743460000000001E-3</v>
+      <c r="C3" s="2">
+        <v>7.2743456999999996E-3</v>
       </c>
       <c r="D3">
         <v>4.7181677999999998E-2</v>
@@ -19958,8 +19966,8 @@
       <c r="B4" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="3">
-        <v>1.4848493000000001E-2</v>
+      <c r="C4" s="2">
+        <v>1.4848492499999999E-2</v>
       </c>
       <c r="D4">
         <v>8.9528030999999994E-2</v>
@@ -19975,8 +19983,8 @@
       <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="3">
-        <v>1.0003939999999999E-2</v>
+      <c r="C5" s="2">
+        <v>1.0003940399999999E-2</v>
       </c>
       <c r="D5">
         <v>4.2133302999999997E-2</v>
@@ -19992,8 +20000,8 @@
       <c r="B6" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="3">
-        <v>1.7986466999999999E-2</v>
+      <c r="C6" s="2">
+        <v>1.7986467200000002E-2</v>
       </c>
       <c r="D6">
         <v>6.3569935999999994E-2</v>
@@ -20009,8 +20017,8 @@
       <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="3">
-        <v>1.2021588E-2</v>
+      <c r="C7" s="2">
+        <v>1.2021588099999999E-2</v>
       </c>
       <c r="D7">
         <v>3.6593170000000001E-2</v>
@@ -20026,8 +20034,8 @@
       <c r="B8" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="3">
-        <v>1.5199763E-2</v>
+      <c r="C8" s="2">
+        <v>1.5199763200000001E-2</v>
       </c>
       <c r="D8">
         <v>5.7640362000000001E-2</v>
@@ -20043,8 +20051,8 @@
       <c r="B9" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="3">
-        <v>1.1044782E-2</v>
+      <c r="C9" s="2">
+        <v>1.10447823E-2</v>
       </c>
       <c r="D9">
         <v>4.3677476999999999E-2</v>
@@ -20060,7 +20068,7 @@
       <c r="B10" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>2.3984127000000001E-2</v>
       </c>
       <c r="D10">
@@ -20077,7 +20085,7 @@
       <c r="B11" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>1.0818888E-2</v>
       </c>
       <c r="D11">
@@ -20094,8 +20102,8 @@
       <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="3">
-        <v>6.2365980000000003E-3</v>
+      <c r="C12" s="2">
+        <v>6.2365982000000004E-3</v>
       </c>
       <c r="D12">
         <v>4.1331606999999999E-2</v>
@@ -20111,7 +20119,7 @@
       <c r="B13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>1.7384206999999999E-2</v>
       </c>
       <c r="D13">
@@ -20128,8 +20136,8 @@
       <c r="B14" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="3">
-        <v>1.1908823000000001E-2</v>
+      <c r="C14" s="2">
+        <v>1.1908823299999999E-2</v>
       </c>
       <c r="D14">
         <v>6.7082257000000006E-2</v>
@@ -20145,8 +20153,8 @@
       <c r="B15" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="3">
-        <v>1.1174119999999999E-3</v>
+      <c r="C15" s="2">
+        <v>1.1174121E-3</v>
       </c>
       <c r="D15">
         <v>4.2512064000000002E-2</v>
@@ -20162,8 +20170,8 @@
       <c r="B16" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="3">
-        <v>1.6867671000000001E-2</v>
+      <c r="C16" s="2">
+        <v>1.6867671300000001E-2</v>
       </c>
       <c r="D16">
         <v>3.8427772999999998E-2</v>
@@ -20179,8 +20187,8 @@
       <c r="B17" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="3">
-        <v>9.0080999999999998E-3</v>
+      <c r="C17" s="2">
+        <v>9.0081003999999999E-3</v>
       </c>
       <c r="D17">
         <v>4.586701E-2</v>
@@ -20196,8 +20204,8 @@
       <c r="B18" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="3">
-        <v>3.9418580000000003E-3</v>
+      <c r="C18" s="2">
+        <v>3.9418576000000002E-3</v>
       </c>
       <c r="D18">
         <v>4.5498192999999999E-2</v>
@@ -20213,7 +20221,7 @@
       <c r="B19" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="2">
         <v>9.3825639999999995E-3</v>
       </c>
       <c r="D19">
@@ -20230,7 +20238,7 @@
       <c r="B20" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="2">
         <v>1.3391624E-2</v>
       </c>
       <c r="D20">
@@ -20247,8 +20255,8 @@
       <c r="B21" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="3">
-        <v>8.5540649999999996E-3</v>
+      <c r="C21" s="2">
+        <v>8.5540653000000001E-3</v>
       </c>
       <c r="D21">
         <v>7.1888937999999999E-2</v>
@@ -20264,8 +20272,8 @@
       <c r="B22" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="3">
-        <v>1.8569114000000001E-2</v>
+      <c r="C22" s="2">
+        <v>1.85691142E-2</v>
       </c>
       <c r="D22">
         <v>5.8674846000000003E-2</v>
@@ -20281,8 +20289,8 @@
       <c r="B23" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="3">
-        <v>8.3694080000000001E-3</v>
+      <c r="C23" s="2">
+        <v>8.3694076999999995E-3</v>
       </c>
       <c r="D23">
         <v>5.4310955000000001E-2</v>
@@ -20298,8 +20306,8 @@
       <c r="B24" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="3">
-        <v>8.5308390000000001E-3</v>
+      <c r="C24" s="2">
+        <v>8.5308386E-3</v>
       </c>
       <c r="D24">
         <v>7.4511019999999997E-2</v>
@@ -20763,7 +20771,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
